--- a/biology/Médecine/Pathologiste/Pathologiste.xlsx
+++ b/biology/Médecine/Pathologiste/Pathologiste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pathologiste est un professionnel de santé responsable de l'analyse de tissus biologiques, des liquides biologiques, des cellules isolées, de leur prélèvement et de leurs interprétations en vue d'aboutir à l'origine physiopathologique d'une maladie.
 Il s'appuie pour cela sur les dernières découvertes en sciences fondamentales ce qui lui vaut d'être considéré comme le plus scientifique des professionnels de santé. Il est assisté en Amérique du Nord de technologues et de techniciens, en France de techniciens de laboratoire.
